--- a/Results.xlsx
+++ b/Results.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,152 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Kolonna</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Vidējais</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Kvadrātiskais vidējais</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Absolūtā kļūda</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sistēmiskā kļūda</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Galīgā absolūtā kļūda</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Relatīvā kļūda (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>d1  m</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.13287</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.02994</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06886</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.00065</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.06886</v>
+      </c>
+      <c r="G2" t="n">
+        <v>51.82685</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>T1s</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0549</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.12628</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.00065</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.12628</v>
+      </c>
+      <c r="G3" t="n">
+        <v>11.91281</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>d2m</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.11081</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.02255</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05185</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.00065</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.05185</v>
+      </c>
+      <c r="G4" t="n">
+        <v>46.79469</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>T2s</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.00375</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.03779</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08692999999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.00065</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.08692999999999999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8.660030000000001</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -483,16 +483,16 @@
         <v>0.02994</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06886</v>
+        <v>0.08323999999999999</v>
       </c>
       <c r="E2" t="n">
         <v>0.00065</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06886</v>
+        <v>0.08323999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>51.82685</v>
+        <v>62.64289</v>
       </c>
     </row>
     <row r="3">
@@ -508,16 +508,16 @@
         <v>0.0549</v>
       </c>
       <c r="D3" t="n">
-        <v>0.12628</v>
+        <v>0.15263</v>
       </c>
       <c r="E3" t="n">
         <v>0.00065</v>
       </c>
       <c r="F3" t="n">
-        <v>0.12628</v>
+        <v>0.15263</v>
       </c>
       <c r="G3" t="n">
-        <v>11.91281</v>
+        <v>14.39896</v>
       </c>
     </row>
     <row r="4">
@@ -533,16 +533,16 @@
         <v>0.02255</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05185</v>
+        <v>0.06268</v>
       </c>
       <c r="E4" t="n">
         <v>0.00065</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05185</v>
+        <v>0.06268</v>
       </c>
       <c r="G4" t="n">
-        <v>46.79469</v>
+        <v>56.56054</v>
       </c>
     </row>
     <row r="5">
@@ -558,16 +558,16 @@
         <v>0.03779</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08692999999999999</v>
+        <v>0.10507</v>
       </c>
       <c r="E5" t="n">
         <v>0.00065</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08692999999999999</v>
+        <v>0.10507</v>
       </c>
       <c r="G5" t="n">
-        <v>8.660030000000001</v>
+        <v>10.46734</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,101 +473,126 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>d1  m</t>
+          <t>t1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.13287</v>
+        <v>27.48567</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02994</v>
+        <v>0.00329</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08323999999999999</v>
+        <v>0.008460000000000001</v>
       </c>
       <c r="E2" t="n">
         <v>0.00065</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08323999999999999</v>
+        <v>0.008460000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>62.64289</v>
+        <v>0.03079</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>T1s</t>
+          <t>t2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.06</v>
+        <v>25.66867</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0549</v>
+        <v>0.00575</v>
       </c>
       <c r="D3" t="n">
-        <v>0.15263</v>
+        <v>0.01477</v>
       </c>
       <c r="E3" t="n">
         <v>0.00065</v>
       </c>
       <c r="F3" t="n">
-        <v>0.15263</v>
+        <v>0.01477</v>
       </c>
       <c r="G3" t="n">
-        <v>14.39896</v>
+        <v>0.05755</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>d2m</t>
+          <t>t3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.11081</v>
+        <v>24.414</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02255</v>
+        <v>0.00481</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06268</v>
+        <v>0.01236</v>
       </c>
       <c r="E4" t="n">
         <v>0.00065</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06268</v>
+        <v>0.01236</v>
       </c>
       <c r="G4" t="n">
-        <v>56.56054</v>
+        <v>0.05063</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>T2s</t>
+          <t>t4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.00375</v>
+        <v>22.79817</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03779</v>
+        <v>0.0058</v>
       </c>
       <c r="D5" t="n">
-        <v>0.10507</v>
+        <v>0.0149</v>
       </c>
       <c r="E5" t="n">
         <v>0.00065</v>
       </c>
       <c r="F5" t="n">
-        <v>0.10507</v>
+        <v>0.0149</v>
       </c>
       <c r="G5" t="n">
-        <v>10.46734</v>
+        <v>0.06537</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>t5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>20.8995</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.008970000000000001</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.02306</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.00065</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.02306</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.11034</v>
       </c>
     </row>
   </sheetData>
